--- a/797018760.xlsx
+++ b/797018760.xlsx
@@ -1,21 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EvnikaGK #2\Desktop\РГР ТПР\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet name="Линейное программирование" sheetId="1" r:id="rId4"/>
+    <sheet name="Линейное программирование" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Линейное программирование'!$A$2:$B$2</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Линейное программирование'!$A$2:$B$2</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Линейное программирование'!$C$3</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Линейное программирование'!$C$4</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Линейное программирование'!$C$5</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Линейное программирование'!$D$7</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">целое</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Линейное программирование'!$E$3</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Линейное программирование'!$E$4</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Линейное программирование'!$E$5</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>x1</t>
   </si>
@@ -35,27 +80,6 @@
     <t>=</t>
   </si>
   <si>
-    <t>1. Перейдите к ячейке D7</t>
-  </si>
-  <si>
-    <t>2. Выполните команду &lt;Сервис / Поиск решения&gt;</t>
-  </si>
-  <si>
-    <t>3. В диалоговом окне укажите:</t>
-  </si>
-  <si>
-    <t>вид поиска (максимальное значение)</t>
-  </si>
-  <si>
-    <t>в поле &lt;изменяя ячейки&gt;: A2:B2</t>
-  </si>
-  <si>
-    <t>Нажмите кнопку &lt;Параметры&gt; и установите: Линейная модель, Неотрицательные значения</t>
-  </si>
-  <si>
-    <t>в поле &lt;Ограничения&gt; добавьте заданные ограничения</t>
-  </si>
-  <si>
     <t>A2:B2=цел</t>
   </si>
   <si>
@@ -68,29 +92,38 @@
     <t>C5&lt;=E5</t>
   </si>
   <si>
-    <t>Нажмите на кнопку &lt;Выполнить&gt;</t>
+    <t>1. выделить D7</t>
+  </si>
+  <si>
+    <t>2. использовать: поиск решения</t>
+  </si>
+  <si>
+    <t>3. указать:вид поиска (максимальное значение)</t>
+  </si>
+  <si>
+    <t>потом в поле: (изменяя ячейки переменных): вставить A2 и B2 для перебора значений</t>
+  </si>
+  <si>
+    <t>установить: линейная модель, леотрицательные значения</t>
+  </si>
+  <si>
+    <t>в поле: ограничения добавить заданные ограничения</t>
+  </si>
+  <si>
+    <t>и запустить.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF4169E0"/>
       <name val="Arial"/>
@@ -101,10 +134,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -114,153 +144,173 @@
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="double">
         <color rgb="FF808080"/>
       </left>
+      <right/>
       <top style="double">
         <color rgb="FF808080"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="double">
         <color rgb="FF808080"/>
       </right>
       <top style="double">
         <color rgb="FF808080"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
         <color rgb="FF808080"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FF808080"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="double">
         <color rgb="FF808080"/>
       </right>
+      <top/>
       <bottom style="double">
         <color rgb="FF808080"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="dashDot">
         <color rgb="FF808080"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="dashDot">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDot">
         <color rgb="FF808080"/>
       </left>
+      <right/>
       <top style="dashDot">
         <color rgb="FF808080"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDot">
         <color rgb="FF808080"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDot">
         <color rgb="FF808080"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="dashDot">
         <color rgb="FF808080"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dashDot">
         <color rgb="FF808080"/>
       </right>
       <top style="dashDot">
         <color rgb="FF808080"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dashDot">
         <color rgb="FF808080"/>
       </right>
-    </border>
-    <border>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dashDot">
         <color rgb="FF808080"/>
       </right>
+      <top/>
       <bottom style="dashDot">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -550,19 +600,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -570,20 +617,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
       <c r="B3" s="11">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="str">
+        <v>-7</v>
+      </c>
+      <c r="C3" s="6">
         <f>SUMPRODUCT(A2:B2,A3:B3)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
@@ -592,16 +643,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <f>SUMPRODUCT(A2:B2,A4:B4)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -610,16 +661,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>5</v>
       </c>
       <c r="B5" s="13">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="7">
         <f>SUMPRODUCT(A2:B2,A5:B5)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>2</v>
@@ -628,12 +679,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>14</v>
       </c>
@@ -643,83 +694,74 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="1">
         <f>SUMPRODUCT(A2:B2,A7:B7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <scenarios current="0">
+    <scenario name="searching" count="2" user="EvnikaGK #2" comment="Автор: EvnikaGK #2 , 9/20/2020">
+      <inputCells r="A2" val="0"/>
+      <inputCells r="B2" val="0"/>
+    </scenario>
+  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>